--- a/1HL_Neurons_Network_Results_TTS.xlsx
+++ b/1HL_Neurons_Network_Results_TTS.xlsx
@@ -490,31 +490,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8506521852734252</v>
+        <v>0.7046572215937075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8587051920235356</v>
+        <v>0.4558242880979919</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1465768275573138</v>
+        <v>-0.8935776323650808</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9457782197150932</v>
+        <v>1.322001308241412</v>
       </c>
       <c r="F2" t="n">
-        <v>0.932711291932972</v>
+        <v>1.829834684711549</v>
       </c>
       <c r="G2" t="n">
-        <v>1.196567748948164</v>
+        <v>1.562539214595799</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7623326778411865</v>
+        <v>1.014138698577881</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7609497308731079</v>
+        <v>1.415918111801147</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9961301684379578</v>
+        <v>1.221588611602783</v>
       </c>
     </row>
     <row r="3">
@@ -522,31 +522,31 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9358562465313615</v>
+        <v>0.8387283053813119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9550521777837082</v>
+        <v>0.8583939330934947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3737440815106412</v>
+        <v>0.5509937896465036</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6219946367593735</v>
+        <v>0.9827619991457885</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5234604161498481</v>
+        <v>0.9351191169932075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8725217054667581</v>
+        <v>0.7456815289846697</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4877392053604126</v>
+        <v>0.8129413723945618</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4371896684169769</v>
+        <v>0.7816821336746216</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7502577304840088</v>
+        <v>0.6114778518676758</v>
       </c>
     </row>
     <row r="4">
@@ -554,31 +554,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9400376118400224</v>
+        <v>0.9432454811395748</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9563644230257923</v>
+        <v>0.9626212079818343</v>
       </c>
       <c r="D4" t="n">
-        <v>0.361776585282841</v>
+        <v>0.6700212236953564</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6084697308107545</v>
+        <v>0.5830909759146378</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5180923210946687</v>
+        <v>0.47976359903802</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8652117104069839</v>
+        <v>0.6293803021795743</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4656644463539124</v>
+        <v>0.4598746001720428</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4328944981098175</v>
+        <v>0.3974170088768005</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7462773323059082</v>
+        <v>0.4982325732707977</v>
       </c>
     </row>
     <row r="5">
@@ -586,31 +586,31 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9745779942234735</v>
+        <v>0.9660787397460597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.97853941751131</v>
+        <v>0.9738584992603632</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6052640005728898</v>
+        <v>0.7992156912721566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3964423547285421</v>
+        <v>0.448715624807614</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3630563183174659</v>
+        <v>0.4001311415034431</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7033610901244421</v>
+        <v>0.4933595175603206</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3006882965564728</v>
+        <v>0.34702268242836</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3140250444412231</v>
+        <v>0.3097516000270844</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5554685592651367</v>
+        <v>0.3795585632324219</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9687861058636509</v>
+        <v>0.9499609660941065</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9654864940087153</v>
+        <v>0.9261156755728165</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7968146673436936</v>
+        <v>0.8233938219440038</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4300596706162594</v>
+        <v>0.5435305371746696</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4645426279747434</v>
+        <v>0.6770315126004338</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5157262240378359</v>
+        <v>0.4765183162531281</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3254428505897522</v>
+        <v>0.424863874912262</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3705634772777557</v>
+        <v>0.5651513338088989</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3951669335365295</v>
+        <v>0.35722416639328</v>
       </c>
     </row>
     <row r="7">
@@ -650,31 +650,31 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9820906850131388</v>
+        <v>0.9192658258899536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9829107427082118</v>
+        <v>0.9464860545824741</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6580665966840238</v>
+        <v>0.7146849705208157</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3287756690095609</v>
+        <v>0.6940471622742378</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3262818659277975</v>
+        <v>0.5768137573020162</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6518154174844739</v>
+        <v>0.5860583371493288</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2405593991279602</v>
+        <v>0.5855109691619873</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2731537222862244</v>
+        <v>0.4746169745922089</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5106983184814453</v>
+        <v>0.5083326697349548</v>
       </c>
     </row>
     <row r="8">
@@ -682,31 +682,31 @@
         <v>40</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9719161508420058</v>
+        <v>0.9832728756121542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9790456343457262</v>
+        <v>0.9907324257575715</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8083703410631622</v>
+        <v>0.891052602364553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4078400562374279</v>
+        <v>0.3152834668512114</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3613343728015055</v>
+        <v>0.2404367091054579</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4808674685357202</v>
+        <v>0.3608400295809421</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3354838490486145</v>
+        <v>0.2456029504537582</v>
       </c>
       <c r="I8" t="n">
-        <v>0.301692932844162</v>
+        <v>0.2021234184503555</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3932458758354187</v>
+        <v>0.2813747823238373</v>
       </c>
     </row>
     <row r="9">
@@ -714,31 +714,31 @@
         <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9780950026592794</v>
+        <v>0.9620558574134281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9827918097059742</v>
+        <v>0.9623929302490526</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7639348240907808</v>
+        <v>0.8500778229765357</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3609532241368693</v>
+        <v>0.4755893213672609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3239102561986321</v>
+        <v>0.484986734184255</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5535543445728498</v>
+        <v>0.4239598258583484</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2562454640865326</v>
+        <v>0.3701335489749908</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2356882691383362</v>
+        <v>0.3570464849472046</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4013504087924957</v>
+        <v>0.3529470860958099</v>
       </c>
     </row>
     <row r="10">
@@ -746,31 +746,31 @@
         <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9726112651086242</v>
+        <v>0.9794362108437442</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9751660469984477</v>
+        <v>0.9755419550414403</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2932172430227145</v>
+        <v>0.8929750631034485</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4080826065805352</v>
+        <v>0.3492363586082718</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3934631998577935</v>
+        <v>0.3888849220849371</v>
       </c>
       <c r="G10" t="n">
-        <v>0.946545639920632</v>
+        <v>0.3581464957731374</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3128511607646942</v>
+        <v>0.2645277976989746</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3335978090763092</v>
+        <v>0.3001944720745087</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8282230496406555</v>
+        <v>0.2667205631732941</v>
       </c>
     </row>
     <row r="11">
@@ -778,31 +778,31 @@
         <v>55</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9780977729912509</v>
+        <v>0.9763997475115802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9847626878020679</v>
+        <v>0.9687173993194801</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8805975253516813</v>
+        <v>0.8890663095617494</v>
       </c>
       <c r="E11" t="n">
-        <v>0.360190151216095</v>
+        <v>0.3741702994118585</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3129114660782458</v>
+        <v>0.440948569755644</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3825117993248995</v>
+        <v>0.3666340735789199</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2866563200950623</v>
+        <v>0.2804793417453766</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2515521943569183</v>
+        <v>0.3619342148303986</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3019174039363861</v>
+        <v>0.2893279194831848</v>
       </c>
     </row>
     <row r="12">
@@ -810,31 +810,31 @@
         <v>60</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9834586463521008</v>
+        <v>0.9665491925896814</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9840531426810002</v>
+        <v>0.987584630216541</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5893380462118825</v>
+        <v>0.8416379793039215</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3182808597845084</v>
+        <v>0.4483125419504999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3177866552566376</v>
+        <v>0.2783961410288581</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7125276242305244</v>
+        <v>0.4449868266159574</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2284622639417648</v>
+        <v>0.3806563913822174</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2529756724834442</v>
+        <v>0.2258289605379105</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5996790528297424</v>
+        <v>0.3646087348461151</v>
       </c>
     </row>
     <row r="13">
@@ -842,31 +842,31 @@
         <v>65</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9831395700154337</v>
+        <v>0.9336992372537829</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9905575672614013</v>
+        <v>0.9028838720599519</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8550442028213476</v>
+        <v>0.6927579467367271</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3159257159690837</v>
+        <v>0.6287658013316808</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2424612036866881</v>
+        <v>0.7758283940768195</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4188853400993845</v>
+        <v>0.6104109346122809</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2402237057685852</v>
+        <v>0.5364538431167603</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1998216658830643</v>
+        <v>0.7052796483039856</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3200719654560089</v>
+        <v>0.5189061760902405</v>
       </c>
     </row>
     <row r="14">
@@ -874,31 +874,31 @@
         <v>70</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9783693501777526</v>
+        <v>0.9521299402095121</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9817888194877287</v>
+        <v>0.94613874280387</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7067817180236299</v>
+        <v>0.8297274744184324</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3589056931235179</v>
+        <v>0.5317257826275863</v>
       </c>
       <c r="F14" t="n">
-        <v>0.339943356002919</v>
+        <v>0.5773063482369971</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5913713895937076</v>
+        <v>0.4554910546365538</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2711495459079742</v>
+        <v>0.4228949546813965</v>
       </c>
       <c r="I14" t="n">
-        <v>0.276159405708313</v>
+        <v>0.4764750301837921</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4806414246559143</v>
+        <v>0.3433431088924408</v>
       </c>
     </row>
     <row r="15">
@@ -906,31 +906,31 @@
         <v>75</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9807861415767126</v>
+        <v>0.9426017423195424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.986964705857423</v>
+        <v>0.9077000496716026</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7472364971886507</v>
+        <v>0.7521942302854855</v>
       </c>
       <c r="E15" t="n">
-        <v>0.33963439236733</v>
+        <v>0.5850839374104275</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2831446751753836</v>
+        <v>0.7596429563995364</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5532046632458467</v>
+        <v>0.533735212393682</v>
       </c>
       <c r="H15" t="n">
-        <v>0.253545343875885</v>
+        <v>0.4666082262992859</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2140427827835083</v>
+        <v>0.6278623938560486</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4300204515457153</v>
+        <v>0.4119302034378052</v>
       </c>
     </row>
     <row r="16">
@@ -938,31 +938,31 @@
         <v>80</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9699744608431418</v>
+        <v>0.9743143959850114</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9732279978007993</v>
+        <v>0.9802807891663038</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6513360078386543</v>
+        <v>0.8547848714537609</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4247137739743143</v>
+        <v>0.3910601099949336</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4104237910038007</v>
+        <v>0.3484210057481488</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6449730023936513</v>
+        <v>0.414760576951432</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3340593874454498</v>
+        <v>0.3029562830924988</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3464771509170532</v>
+        <v>0.2727850377559662</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5319774150848389</v>
+        <v>0.3160423934459686</v>
       </c>
     </row>
   </sheetData>

--- a/1HL_Neurons_Network_Results_TTS.xlsx
+++ b/1HL_Neurons_Network_Results_TTS.xlsx
@@ -490,31 +490,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7046572215937075</v>
+        <v>0.8287957648437904</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4558242880979919</v>
+        <v>0.7597134857570458</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8935776323650808</v>
+        <v>-0.1008185826842234</v>
       </c>
       <c r="E2" t="n">
-        <v>1.322001308241412</v>
+        <v>1.014488640869681</v>
       </c>
       <c r="F2" t="n">
-        <v>1.829834684711549</v>
+        <v>1.200557644735489</v>
       </c>
       <c r="G2" t="n">
-        <v>1.562539214595799</v>
+        <v>1.145948918610527</v>
       </c>
       <c r="H2" t="n">
-        <v>1.014138698577881</v>
+        <v>0.7709239721298218</v>
       </c>
       <c r="I2" t="n">
-        <v>1.415918111801147</v>
+        <v>0.9141030311584473</v>
       </c>
       <c r="J2" t="n">
-        <v>1.221588611602783</v>
+        <v>0.946412205696106</v>
       </c>
     </row>
     <row r="3">
@@ -522,31 +522,31 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8387283053813119</v>
+        <v>0.9341110066650812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8583939330934947</v>
+        <v>0.9327982357852436</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5509937896465036</v>
+        <v>0.5947167842160873</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9827619991457885</v>
+        <v>0.6303448778724575</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9351191169932075</v>
+        <v>0.6448965020274612</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7456815289846697</v>
+        <v>0.7232728544198329</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8129413723945618</v>
+        <v>0.4991506338119507</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7816821336746216</v>
+        <v>0.5201411247253418</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6114778518676758</v>
+        <v>0.5689038038253784</v>
       </c>
     </row>
     <row r="4">
@@ -554,31 +554,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9432454811395748</v>
+        <v>0.9398228733684233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9626212079818343</v>
+        <v>0.9189669549028185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6700212236953564</v>
+        <v>0.6701484708116237</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5830909759146378</v>
+        <v>0.6007374146024643</v>
       </c>
       <c r="F4" t="n">
-        <v>0.47976359903802</v>
+        <v>0.7031921990389907</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6293803021795743</v>
+        <v>0.6296125438367615</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4598746001720428</v>
+        <v>0.4589971005916595</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3974170088768005</v>
+        <v>0.5341354012489319</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4982325732707977</v>
+        <v>0.5124516487121582</v>
       </c>
     </row>
     <row r="5">
@@ -586,31 +586,31 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9660787397460597</v>
+        <v>0.963896966896024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9738584992603632</v>
+        <v>0.9751636940956808</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7992156912721566</v>
+        <v>0.7416821854552649</v>
       </c>
       <c r="E5" t="n">
-        <v>0.448715624807614</v>
+        <v>0.4640345542533685</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4001311415034431</v>
+        <v>0.3912668867092767</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4933595175603206</v>
+        <v>0.5623879321040771</v>
       </c>
       <c r="H5" t="n">
-        <v>0.34702268242836</v>
+        <v>0.3663428127765656</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3097516000270844</v>
+        <v>0.2897338569164276</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3795585632324219</v>
+        <v>0.4569530785083771</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9499609660941065</v>
+        <v>0.8495088714006005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9261156755728165</v>
+        <v>0.8295017882593679</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8233938219440038</v>
+        <v>-0.7587966801329586</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5435305371746696</v>
+        <v>0.9584097762648878</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6770315126004338</v>
+        <v>1.033649369845994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4765183162531281</v>
+        <v>1.494889932873812</v>
       </c>
       <c r="H6" t="n">
-        <v>0.424863874912262</v>
+        <v>0.8247528672218323</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5651513338088989</v>
+        <v>0.9140856266021729</v>
       </c>
       <c r="J6" t="n">
-        <v>0.35722416639328</v>
+        <v>1.352069616317749</v>
       </c>
     </row>
     <row r="7">
@@ -650,31 +650,31 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9192658258899536</v>
+        <v>0.9330906051070281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9464860545824741</v>
+        <v>0.9538009920410431</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7146849705208157</v>
+        <v>0.6851695384583978</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6940471622742378</v>
+        <v>0.6319024170418364</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5768137573020162</v>
+        <v>0.5357287331177036</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5860583371493288</v>
+        <v>0.6045150629254088</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5855109691619873</v>
+        <v>0.5378904342651367</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4746169745922089</v>
+        <v>0.447202742099762</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5083326697349548</v>
+        <v>0.4873054027557373</v>
       </c>
     </row>
     <row r="8">
@@ -682,31 +682,31 @@
         <v>40</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9832728756121542</v>
+        <v>0.9485584596408008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9907324257575715</v>
+        <v>0.9341197777802021</v>
       </c>
       <c r="D8" t="n">
-        <v>0.891052602364553</v>
+        <v>0.5485926423752452</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3152834668512114</v>
+        <v>0.5594788854448314</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2404367091054579</v>
+        <v>0.641022884274326</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3608400295809421</v>
+        <v>0.7482380834281208</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2456029504537582</v>
+        <v>0.43622687458992</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2021234184503555</v>
+        <v>0.5643824338912964</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2813747823238373</v>
+        <v>0.6025619506835938</v>
       </c>
     </row>
     <row r="9">
@@ -714,31 +714,31 @@
         <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9620558574134281</v>
+        <v>0.9723359049780131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9623929302490526</v>
+        <v>0.9798824450005825</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8500778229765357</v>
+        <v>0.8679613013195238</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4755893213672609</v>
+        <v>0.4050182780215009</v>
       </c>
       <c r="F9" t="n">
-        <v>0.484986734184255</v>
+        <v>0.3549373763215685</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4239598258583484</v>
+        <v>0.3932360170622409</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3701335489749908</v>
+        <v>0.3061456382274628</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3570464849472046</v>
+        <v>0.2753104567527771</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3529470860958099</v>
+        <v>0.3219471573829651</v>
       </c>
     </row>
     <row r="10">
@@ -746,31 +746,31 @@
         <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9794362108437442</v>
+        <v>0.9390828050251604</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9755419550414403</v>
+        <v>0.9178129853702799</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8929750631034485</v>
+        <v>0.7947240730155049</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3492363586082718</v>
+        <v>0.6013074309346831</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3888849220849371</v>
+        <v>0.719811857596347</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3581464957731374</v>
+        <v>0.5007667027590729</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2645277976989746</v>
+        <v>0.4809458255767822</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3001944720745087</v>
+        <v>0.5929586291313171</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2667205631732941</v>
+        <v>0.3972556293010712</v>
       </c>
     </row>
     <row r="11">
@@ -778,31 +778,31 @@
         <v>55</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9763997475115802</v>
+        <v>0.9535142161365819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9687173993194801</v>
+        <v>0.9436903782503384</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8890663095617494</v>
+        <v>0.6325470067762169</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3741702994118585</v>
+        <v>0.5296232899144618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.440948569755644</v>
+        <v>0.5902831859590199</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3666340735789199</v>
+        <v>0.6949001332441952</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2804793417453766</v>
+        <v>0.4088272452354431</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3619342148303986</v>
+        <v>0.4928737580776215</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2893279194831848</v>
+        <v>0.5283234119415283</v>
       </c>
     </row>
     <row r="12">
@@ -810,31 +810,31 @@
         <v>60</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9665491925896814</v>
+        <v>0.9832937014073398</v>
       </c>
       <c r="C12" t="n">
-        <v>0.987584630216541</v>
+        <v>0.9856396557011662</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8416379793039215</v>
+        <v>0.8607727856362637</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4483125419504999</v>
+        <v>0.3165803948114823</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2783961410288581</v>
+        <v>0.2989572109086148</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4449868266159574</v>
+        <v>0.4041614950806136</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3806563913822174</v>
+        <v>0.2355614453554153</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2258289605379105</v>
+        <v>0.2480320632457733</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3646087348461151</v>
+        <v>0.3073167204856873</v>
       </c>
     </row>
     <row r="13">
@@ -842,31 +842,31 @@
         <v>65</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9336992372537829</v>
+        <v>0.968627392371618</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9028838720599519</v>
+        <v>0.9618618009947705</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6927579467367271</v>
+        <v>0.9061550140502935</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6287658013316808</v>
+        <v>0.4306353085838407</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7758283940768195</v>
+        <v>0.4899342746835274</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6104109346122809</v>
+        <v>0.3341550669694203</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5364538431167603</v>
+        <v>0.325701117515564</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7052796483039856</v>
+        <v>0.3874505758285522</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5189061760902405</v>
+        <v>0.2408033460378647</v>
       </c>
     </row>
     <row r="14">
@@ -874,31 +874,31 @@
         <v>70</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9521299402095121</v>
+        <v>0.9089058399383481</v>
       </c>
       <c r="C14" t="n">
-        <v>0.94613874280387</v>
+        <v>0.9215109146452325</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8297274744184324</v>
+        <v>0.790899329167814</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5317257826275863</v>
+        <v>0.7344642341454491</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5773063482369971</v>
+        <v>0.6946760543724634</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4554910546365538</v>
+        <v>0.5034122559216802</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4228949546813965</v>
+        <v>0.5638672113418579</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4764750301837921</v>
+        <v>0.5133549571037292</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3433431088924408</v>
+        <v>0.4055812060832977</v>
       </c>
     </row>
     <row r="15">
@@ -906,31 +906,31 @@
         <v>75</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9426017423195424</v>
+        <v>0.9002806832640138</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9077000496716026</v>
+        <v>0.8708673687856855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7521942302854855</v>
+        <v>0.397627100738747</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5850839374104275</v>
+        <v>0.7745562467375748</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7596429563995364</v>
+        <v>0.8991542113581352</v>
       </c>
       <c r="G15" t="n">
-        <v>0.533735212393682</v>
+        <v>0.8322270122778428</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4666082262992859</v>
+        <v>0.6174110770225525</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6278623938560486</v>
+        <v>0.7414374351501465</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4119302034378052</v>
+        <v>0.6789421439170837</v>
       </c>
     </row>
     <row r="16">
@@ -938,31 +938,31 @@
         <v>80</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9743143959850114</v>
+        <v>0.9619283981764493</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9802807891663038</v>
+        <v>0.9499307381169153</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8547848714537609</v>
+        <v>0.8506687315947672</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3910601099949336</v>
+        <v>0.4767118438850623</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3484210057481488</v>
+        <v>0.560499262366035</v>
       </c>
       <c r="G16" t="n">
-        <v>0.414760576951432</v>
+        <v>0.4255024758545939</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3029562830924988</v>
+        <v>0.3660041987895966</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2727850377559662</v>
+        <v>0.4464218318462372</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3160423934459686</v>
+        <v>0.3194782137870789</v>
       </c>
     </row>
   </sheetData>
